--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value775.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value775.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.024297126376702</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>3.173444765706716</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.723456466325958</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.171135143830035</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.183735971856493</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
